--- a/data/suicidi.xlsx
+++ b/data/suicidi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maidi\OneDrive\Desktop\rProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898F5353-3A0D-449D-9283-9D2E8EACB6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CFEC6E-C121-4941-9C49-90FC379C3D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1820,22 +1820,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1844,13 +1835,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -3410,7 +3410,7 @@
   <dimension ref="A2:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
@@ -3428,16 +3428,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
     </row>
     <row r="3" spans="1:8" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="130" t="s">
@@ -4190,14 +4190,14 @@
       <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:21" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
@@ -4207,69 +4207,69 @@
     </row>
     <row r="4" spans="1:21" s="38" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="141" t="s">
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="140" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="139"/>
-      <c r="B6" s="135" t="s">
+      <c r="A6" s="137"/>
+      <c r="B6" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="135" t="s">
+      <c r="I6" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
       <c r="O6" s="34"/>
-      <c r="P6" s="136" t="s">
+      <c r="P6" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="136"/>
-      <c r="U6" s="131"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="133"/>
     </row>
     <row r="7" spans="1:21" s="61" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="52" t="s">
         <v>66</v>
       </c>
@@ -4323,7 +4323,7 @@
       <c r="T7" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="U7" s="135"/>
+      <c r="U7" s="141"/>
     </row>
     <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -4371,28 +4371,28 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="131"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
     </row>
     <row r="11" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="s">
@@ -8511,14 +8511,14 @@
       <c r="AG2" s="42"/>
     </row>
     <row r="3" spans="1:33" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
@@ -8527,14 +8527,14 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
       <c r="N3" s="41"/>
-      <c r="R3" s="137" t="s">
+      <c r="R3" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
       <c r="X3" s="41"/>
       <c r="Y3" s="41"/>
       <c r="Z3" s="41"/>
@@ -8546,11 +8546,11 @@
     </row>
     <row r="4" spans="1:33" s="38" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
       <c r="R4" s="39"/>
-      <c r="S4" s="138"/>
-      <c r="T4" s="138"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="135"/>
     </row>
     <row r="5" spans="1:33" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
@@ -12332,6 +12332,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="S24:AG24"/>
+    <mergeCell ref="S37:AG37"/>
+    <mergeCell ref="S38:AG38"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S7:AG7"/>
+    <mergeCell ref="S9:AG9"/>
+    <mergeCell ref="S23:AG23"/>
     <mergeCell ref="B37:P37"/>
     <mergeCell ref="B7:P7"/>
     <mergeCell ref="B38:P38"/>
@@ -12340,14 +12348,6 @@
     <mergeCell ref="B24:P24"/>
     <mergeCell ref="B9:P9"/>
     <mergeCell ref="B23:P23"/>
-    <mergeCell ref="S24:AG24"/>
-    <mergeCell ref="S37:AG37"/>
-    <mergeCell ref="S38:AG38"/>
-    <mergeCell ref="R3:W3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S7:AG7"/>
-    <mergeCell ref="S9:AG9"/>
-    <mergeCell ref="S23:AG23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/data/suicidi.xlsx
+++ b/data/suicidi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maidi\OneDrive\Desktop\rProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CFEC6E-C121-4941-9C49-90FC379C3D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A4EA89-9A59-4B68-B71B-E3E6FF0F6541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-SerieStorItalia" sheetId="7" r:id="rId1"/>
@@ -20,12 +20,13 @@
     <sheet name="4-Stagionalità" sheetId="5" r:id="rId5"/>
     <sheet name="5-ModalitàAtto" sheetId="6" r:id="rId6"/>
     <sheet name="6-Multimorb" sheetId="9" r:id="rId7"/>
+    <sheet name="7 -Tentativi Suicidi" sheetId="10" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_1_2009" localSheetId="1">#REF!</definedName>
@@ -656,7 +657,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="159">
   <si>
     <t>2011</t>
   </si>
@@ -1141,12 +1142,27 @@
   <si>
     <t>Males+Females</t>
   </si>
+  <si>
+    <t>Tentativi di suicidio</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="13">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -1157,8 +1173,11 @@
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
     <numFmt numFmtId="171" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="172" formatCode="_-@"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0_-_-_-;[Blue]_-* \-#,##0_-_-_-;_-* &quot;-&quot;_-_-_-;[Red]_-@_-_-_-"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0;\-* #,##0;_-* &quot;-&quot;;_-@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -1325,8 +1344,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1343,8 +1377,20 @@
         <fgColor indexed="26"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1458,8 +1504,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1483,8 +1555,20 @@
     <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="29" fillId="4" borderId="11">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="4" borderId="11" applyFont="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="30" fillId="5" borderId="12" applyFont="0" applyFill="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1820,6 +1904,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="6" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="23"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1872,13 +1976,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="28">
     <cellStyle name="Euro" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Euro 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Fiancata" xfId="24" xr:uid="{215C77FF-01BF-4AF1-A52E-E2EFBA38FF1E}"/>
+    <cellStyle name="Intero" xfId="25" xr:uid="{120238E3-5DBF-4102-B1A1-7B7E77FB18C9}"/>
     <cellStyle name="Migliaia" xfId="22" builtinId="3"/>
     <cellStyle name="Migliaia (0)_camporese 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Migliaia [0] 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Migliaia [0] 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Migliaia [0] 3" xfId="26" xr:uid="{03EA4AF2-1B52-470D-9BBA-88EC5AAFA4D5}"/>
     <cellStyle name="Migliaia 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Migliaia 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Migliaia 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -1892,9 +1999,11 @@
     <cellStyle name="Normale 6 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Normale 7" xfId="16" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Normale 7 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normale 8" xfId="23" xr:uid="{661316A4-FA38-43BE-A8E6-9DB4920FB826}"/>
     <cellStyle name="Normale_indicatori-burgio2000-formule" xfId="5" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Nota 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Nota 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Testata" xfId="27" xr:uid="{649FB209-5C67-47A7-940D-840BF41C7BC3}"/>
     <cellStyle name="Valuta (0)_camporese 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3409,7 +3518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3428,16 +3537,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
     </row>
     <row r="3" spans="1:8" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="130" t="s">
@@ -4190,14 +4299,14 @@
       <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:21" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
@@ -4207,69 +4316,69 @@
     </row>
     <row r="4" spans="1:21" s="38" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="139"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="140" t="s">
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
+      <c r="U5" s="148" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="137"/>
-      <c r="B6" s="141" t="s">
+      <c r="A6" s="145"/>
+      <c r="B6" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="141" t="s">
+      <c r="I6" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
       <c r="O6" s="34"/>
-      <c r="P6" s="132" t="s">
+      <c r="P6" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="133"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="141"/>
     </row>
     <row r="7" spans="1:21" s="61" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138"/>
+      <c r="A7" s="146"/>
       <c r="B7" s="52" t="s">
         <v>66</v>
       </c>
@@ -4323,7 +4432,7 @@
       <c r="T7" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="U7" s="141"/>
+      <c r="U7" s="149"/>
     </row>
     <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -4371,28 +4480,28 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
     </row>
     <row r="11" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="s">
@@ -4854,7 +4963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -5483,7 +5592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:S29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -5676,12 +5785,12 @@
       <c r="D23" s="75"/>
     </row>
     <row r="26" spans="1:19" s="85" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="142" t="s">
+      <c r="A26" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
       <c r="E26" s="83"/>
       <c r="F26" s="83"/>
       <c r="G26" s="83"/>
@@ -5699,12 +5808,12 @@
       <c r="S26" s="83"/>
     </row>
     <row r="27" spans="1:19" s="85" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="84"/>
@@ -5722,12 +5831,12 @@
       <c r="S27" s="84"/>
     </row>
     <row r="28" spans="1:19" s="85" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
       <c r="E28" s="83"/>
       <c r="F28" s="83"/>
       <c r="G28" s="83"/>
@@ -5789,21 +5898,21 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="81"/>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="82" t="s">
@@ -6660,21 +6769,21 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="81"/>
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="143"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="151"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="82" t="s">
@@ -7546,21 +7655,21 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="81"/>
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="143"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="143"/>
-      <c r="F51" s="143"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="143"/>
-      <c r="I51" s="143"/>
-      <c r="J51" s="143"/>
-      <c r="K51" s="143"/>
-      <c r="L51" s="143"/>
-      <c r="M51" s="143"/>
-      <c r="N51" s="143"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="151"/>
+      <c r="K51" s="151"/>
+      <c r="L51" s="151"/>
+      <c r="M51" s="151"/>
+      <c r="N51" s="151"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="82" t="s">
@@ -8511,14 +8620,14 @@
       <c r="AG2" s="42"/>
     </row>
     <row r="3" spans="1:33" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
@@ -8527,14 +8636,14 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
       <c r="N3" s="41"/>
-      <c r="R3" s="134" t="s">
+      <c r="R3" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
       <c r="X3" s="41"/>
       <c r="Y3" s="41"/>
       <c r="Z3" s="41"/>
@@ -8546,11 +8655,11 @@
     </row>
     <row r="4" spans="1:33" s="38" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
       <c r="R4" s="39"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
     </row>
     <row r="5" spans="1:33" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
@@ -8669,41 +8778,41 @@
       <c r="AF6" s="2"/>
     </row>
     <row r="7" spans="1:33" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
       <c r="Q7" s="29"/>
-      <c r="S7" s="144" t="s">
+      <c r="S7" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="144"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="144"/>
-      <c r="X7" s="144"/>
-      <c r="Y7" s="144"/>
-      <c r="Z7" s="144"/>
-      <c r="AA7" s="144"/>
-      <c r="AB7" s="144"/>
-      <c r="AC7" s="144"/>
-      <c r="AD7" s="144"/>
-      <c r="AE7" s="144"/>
-      <c r="AF7" s="144"/>
-      <c r="AG7" s="144"/>
+      <c r="T7" s="152"/>
+      <c r="U7" s="152"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="152"/>
     </row>
     <row r="8" spans="1:33" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34"/>
@@ -8740,42 +8849,42 @@
     </row>
     <row r="9" spans="1:33" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
       <c r="Q9" s="29"/>
       <c r="R9" s="28"/>
-      <c r="S9" s="144" t="s">
+      <c r="S9" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="144"/>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="144"/>
-      <c r="AF9" s="144"/>
-      <c r="AG9" s="144"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="152"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="152"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="152"/>
+      <c r="AG9" s="152"/>
     </row>
     <row r="10" spans="1:33" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -9921,75 +10030,75 @@
     </row>
     <row r="23" spans="1:33" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
-      <c r="P23" s="144"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="28"/>
-      <c r="S23" s="144" t="s">
+      <c r="S23" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="T23" s="144"/>
-      <c r="U23" s="144"/>
-      <c r="V23" s="144"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="144"/>
-      <c r="Y23" s="144"/>
-      <c r="Z23" s="144"/>
-      <c r="AA23" s="144"/>
-      <c r="AB23" s="144"/>
-      <c r="AC23" s="144"/>
-      <c r="AD23" s="144"/>
-      <c r="AE23" s="144"/>
-      <c r="AF23" s="144"/>
-      <c r="AG23" s="144"/>
+      <c r="T23" s="152"/>
+      <c r="U23" s="152"/>
+      <c r="V23" s="152"/>
+      <c r="W23" s="152"/>
+      <c r="X23" s="152"/>
+      <c r="Y23" s="152"/>
+      <c r="Z23" s="152"/>
+      <c r="AA23" s="152"/>
+      <c r="AB23" s="152"/>
+      <c r="AC23" s="152"/>
+      <c r="AD23" s="152"/>
+      <c r="AE23" s="152"/>
+      <c r="AF23" s="152"/>
+      <c r="AG23" s="152"/>
     </row>
     <row r="24" spans="1:33" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="144"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="144"/>
-      <c r="T24" s="144"/>
-      <c r="U24" s="144"/>
-      <c r="V24" s="144"/>
-      <c r="W24" s="144"/>
-      <c r="X24" s="144"/>
-      <c r="Y24" s="144"/>
-      <c r="Z24" s="144"/>
-      <c r="AA24" s="144"/>
-      <c r="AB24" s="144"/>
-      <c r="AC24" s="144"/>
-      <c r="AD24" s="144"/>
-      <c r="AE24" s="144"/>
-      <c r="AF24" s="144"/>
-      <c r="AG24" s="144"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="152"/>
+      <c r="W24" s="152"/>
+      <c r="X24" s="152"/>
+      <c r="Y24" s="152"/>
+      <c r="Z24" s="152"/>
+      <c r="AA24" s="152"/>
+      <c r="AB24" s="152"/>
+      <c r="AC24" s="152"/>
+      <c r="AD24" s="152"/>
+      <c r="AE24" s="152"/>
+      <c r="AF24" s="152"/>
+      <c r="AG24" s="152"/>
     </row>
     <row r="25" spans="1:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -11103,75 +11212,75 @@
       <c r="AG36" s="30"/>
     </row>
     <row r="37" spans="1:33" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="144" t="s">
+      <c r="B37" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="144"/>
-      <c r="K37" s="144"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="144"/>
-      <c r="N37" s="144"/>
-      <c r="O37" s="144"/>
-      <c r="P37" s="144"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="152"/>
+      <c r="O37" s="152"/>
+      <c r="P37" s="152"/>
       <c r="Q37" s="29"/>
-      <c r="S37" s="144" t="s">
+      <c r="S37" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="T37" s="144"/>
-      <c r="U37" s="144"/>
-      <c r="V37" s="144"/>
-      <c r="W37" s="144"/>
-      <c r="X37" s="144"/>
-      <c r="Y37" s="144"/>
-      <c r="Z37" s="144"/>
-      <c r="AA37" s="144"/>
-      <c r="AB37" s="144"/>
-      <c r="AC37" s="144"/>
-      <c r="AD37" s="144"/>
-      <c r="AE37" s="144"/>
-      <c r="AF37" s="144"/>
-      <c r="AG37" s="144"/>
+      <c r="T37" s="152"/>
+      <c r="U37" s="152"/>
+      <c r="V37" s="152"/>
+      <c r="W37" s="152"/>
+      <c r="X37" s="152"/>
+      <c r="Y37" s="152"/>
+      <c r="Z37" s="152"/>
+      <c r="AA37" s="152"/>
+      <c r="AB37" s="152"/>
+      <c r="AC37" s="152"/>
+      <c r="AD37" s="152"/>
+      <c r="AE37" s="152"/>
+      <c r="AF37" s="152"/>
+      <c r="AG37" s="152"/>
     </row>
     <row r="38" spans="1:33" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
-      <c r="O38" s="144"/>
-      <c r="P38" s="144"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="152"/>
+      <c r="M38" s="152"/>
+      <c r="N38" s="152"/>
+      <c r="O38" s="152"/>
+      <c r="P38" s="152"/>
       <c r="R38" s="28"/>
-      <c r="S38" s="144"/>
-      <c r="T38" s="144"/>
-      <c r="U38" s="144"/>
-      <c r="V38" s="144"/>
-      <c r="W38" s="144"/>
-      <c r="X38" s="144"/>
-      <c r="Y38" s="144"/>
-      <c r="Z38" s="144"/>
-      <c r="AA38" s="144"/>
-      <c r="AB38" s="144"/>
-      <c r="AC38" s="144"/>
-      <c r="AD38" s="144"/>
-      <c r="AE38" s="144"/>
-      <c r="AF38" s="144"/>
-      <c r="AG38" s="144"/>
+      <c r="S38" s="152"/>
+      <c r="T38" s="152"/>
+      <c r="U38" s="152"/>
+      <c r="V38" s="152"/>
+      <c r="W38" s="152"/>
+      <c r="X38" s="152"/>
+      <c r="Y38" s="152"/>
+      <c r="Z38" s="152"/>
+      <c r="AA38" s="152"/>
+      <c r="AB38" s="152"/>
+      <c r="AC38" s="152"/>
+      <c r="AD38" s="152"/>
+      <c r="AE38" s="152"/>
+      <c r="AF38" s="152"/>
+      <c r="AG38" s="152"/>
     </row>
     <row r="39" spans="1:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
@@ -12371,11 +12480,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" s="65" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="153" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
     </row>
     <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
@@ -12612,7 +12721,7 @@
       <c r="C29" s="120"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="146"/>
+      <c r="A30" s="154"/>
       <c r="B30" s="108" t="s">
         <v>112</v>
       </c>
@@ -12621,7 +12730,7 @@
       <c r="E30" s="109"/>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="147"/>
+      <c r="A31" s="155"/>
       <c r="B31" s="111" t="s">
         <v>113</v>
       </c>
@@ -12880,4 +12989,194 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595BAB83-98DB-4787-B240-6C91FD7EFBCE}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="133"/>
+      <c r="B1" s="134" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="137" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="135" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="136">
+        <v>2003</v>
+      </c>
+      <c r="B3" s="138">
+        <v>1748</v>
+      </c>
+      <c r="C3" s="138">
+        <v>1664</v>
+      </c>
+      <c r="D3" s="138">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="136">
+        <v>2004</v>
+      </c>
+      <c r="B4" s="138">
+        <v>1825</v>
+      </c>
+      <c r="C4" s="138">
+        <v>1656</v>
+      </c>
+      <c r="D4" s="138">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="136">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="138">
+        <v>1757</v>
+      </c>
+      <c r="C5" s="138">
+        <v>1551</v>
+      </c>
+      <c r="D5" s="138">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="136">
+        <v>2006</v>
+      </c>
+      <c r="B6" s="138">
+        <v>1754</v>
+      </c>
+      <c r="C6" s="138">
+        <v>1530</v>
+      </c>
+      <c r="D6" s="138">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="136">
+        <v>2007</v>
+      </c>
+      <c r="B7" s="138">
+        <v>1706</v>
+      </c>
+      <c r="C7" s="138">
+        <v>1528</v>
+      </c>
+      <c r="D7" s="138">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="136">
+        <v>2008</v>
+      </c>
+      <c r="B8" s="138">
+        <v>1768</v>
+      </c>
+      <c r="C8" s="138">
+        <v>1559</v>
+      </c>
+      <c r="D8" s="138">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="136">
+        <v>2009</v>
+      </c>
+      <c r="B9" s="138">
+        <v>1769</v>
+      </c>
+      <c r="C9" s="138">
+        <v>1520</v>
+      </c>
+      <c r="D9" s="138">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="136">
+        <v>2010</v>
+      </c>
+      <c r="B10" s="138">
+        <v>1646</v>
+      </c>
+      <c r="C10" s="138">
+        <v>1455</v>
+      </c>
+      <c r="D10" s="138">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="131"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="131"/>
+      <c r="B12" s="131"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="131"/>
+      <c r="B13" s="131"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="131"/>
+      <c r="B14" s="131"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="131"/>
+      <c r="B15" s="131"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="132"/>
+      <c r="B17" s="132"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="131"/>
+      <c r="B18" s="131"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="132"/>
+      <c r="B19" s="132"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/suicidi.xlsx
+++ b/data/suicidi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maidi\OneDrive\Desktop\rProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A4EA89-9A59-4B68-B71B-E3E6FF0F6541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F7E436-3D3B-4F71-8699-34EA5BBF121F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12441,6 +12441,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B37:P37"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B38:P38"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="B23:P23"/>
     <mergeCell ref="S24:AG24"/>
     <mergeCell ref="S37:AG37"/>
     <mergeCell ref="S38:AG38"/>
@@ -12449,14 +12457,6 @@
     <mergeCell ref="S7:AG7"/>
     <mergeCell ref="S9:AG9"/>
     <mergeCell ref="S23:AG23"/>
-    <mergeCell ref="B37:P37"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B38:P38"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B9:P9"/>
-    <mergeCell ref="B23:P23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
@@ -12996,7 +12996,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
